--- a/faq.xlsx
+++ b/faq.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Tạo Chatbot AI\chatbox-support-corrected\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Tạo Chatbot AI_v3\chatbox-support-corrected\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0DE38C-18C5-4906-9A53-00962C23E566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D21CC90-A46A-4C36-A7D8-70427869EE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>question</t>
   </si>
@@ -69,6 +69,24 @@
   </si>
   <si>
     <t>Tính năng Port Isolate trên switch là một cơ chế cô lập lưu lượng giữa các cổng trong cùng một switch, nhằm tăng cường bảo mật và kiểm soát luồng dữ liệu trong mạng LAN</t>
+  </si>
+  <si>
+    <t>Tính năng Loop detect</t>
+  </si>
+  <si>
+    <t>Switch định kỳ gửi một gói tin phát hiện loop đến tất cả các cổng với một khoảng thời gian nhất định, và sau đó nếu switch nhận được gói phát tin phát hiện loop được gửi trước đó thì switch sẽ thực hiện một tác động được cấu hình trước ( có thể chọn block hoặc shutdown cổng)</t>
+  </si>
+  <si>
+    <t>Tính năng giới hạn địa chỉ MAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch cung cấp các tính năng bảo vệ port bằng cách giới hạn địa chỉ MAC kết nối trên port. </t>
+  </si>
+  <si>
+    <t>Tính năng Storm Control</t>
+  </si>
+  <si>
+    <t>Cấu hình storm control được sử dụng để giới hạn các bản tin broadcast,multicast,unknown unicast. Có thể bảo vệ mạng khỏi các cơn bão lưu lượng truy cập bằng cách đặt ngưỡng cho lưu lượng truy cập broadcast, multicast hoặc unknown unicast. Bất kỳ gói nào vượt quá ngưỡng quy định sau đó sẽ bị loại bỏ.</t>
   </si>
 </sst>
 </file>
@@ -127,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -135,7 +153,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,16 +457,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="145.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="232.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -504,8 +519,32 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
